--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
@@ -4768,13 +4772,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4825,7 +4829,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4843,7 +4847,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4857,7 +4861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4883,10 +4887,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4930,7 +4934,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4939,7 +4943,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4957,7 +4961,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4974,7 +4978,7 @@
         <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
@@ -4999,13 +5003,13 @@
         <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -5035,7 +5039,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5108,13 +5112,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5165,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5183,7 +5187,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5223,10 +5227,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5270,7 +5274,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5283,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5297,7 +5301,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5311,7 +5315,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5334,19 +5338,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5395,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5413,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5422,12 +5426,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5450,13 +5454,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5507,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5525,7 +5529,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5539,7 +5543,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5565,10 +5569,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>147</v>
@@ -5612,7 +5616,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5621,7 +5625,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5639,7 +5643,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5653,7 +5657,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5679,16 +5683,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5737,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5755,7 +5759,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5764,12 +5768,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5792,16 +5796,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5851,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5869,7 +5873,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5878,12 +5882,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5909,14 +5913,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5965,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5983,7 +5987,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5992,12 +5996,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6020,17 +6024,17 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6079,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6097,7 +6101,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6106,12 +6110,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6134,19 +6138,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6195,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6213,7 +6217,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6222,12 +6226,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6250,19 +6254,19 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6311,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6329,7 +6333,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6338,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -6346,7 +6350,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6368,16 +6372,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6459,7 +6463,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6482,16 +6486,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6541,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6556,24 +6560,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6596,16 +6600,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6655,7 +6659,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6670,10 +6674,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6687,7 +6691,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6710,16 +6714,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6769,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6787,10 +6791,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6801,7 +6805,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6824,13 +6828,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6881,7 +6885,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6896,10 +6900,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6913,7 +6917,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6936,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6993,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -7011,7 +7015,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -7025,7 +7029,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7051,10 +7055,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>147</v>
@@ -7107,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -7125,7 +7129,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7139,11 +7143,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7165,10 +7169,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7223,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7255,7 +7259,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7281,14 +7285,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7316,10 +7320,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7337,7 +7341,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7355,7 +7359,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7369,7 +7373,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7392,13 +7396,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7449,7 +7453,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7464,10 +7468,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7481,7 +7485,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7504,16 +7508,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7563,7 +7567,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7581,7 +7585,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7595,7 +7599,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7618,16 +7622,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7677,7 +7681,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7692,24 +7696,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7735,13 +7739,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7770,10 +7774,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7791,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7809,21 +7813,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7846,16 +7850,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7905,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7923,21 +7927,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7960,13 +7964,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8017,7 +8021,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8035,7 +8039,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8049,7 +8053,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8075,10 +8079,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>147</v>
@@ -8122,7 +8126,7 @@
         <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
@@ -8131,7 +8135,7 @@
         <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -8149,7 +8153,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8163,7 +8167,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8186,19 +8190,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8247,7 +8251,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8265,7 +8269,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8274,12 +8278,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8305,20 +8309,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8342,10 +8346,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8381,7 +8385,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8390,12 +8394,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8418,17 +8422,17 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8477,7 +8481,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8495,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8504,12 +8508,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8535,14 +8539,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8591,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8600,7 +8604,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8609,7 +8613,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8618,12 +8622,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8649,16 +8653,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8711,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8729,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8734,12 +8738,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8762,16 +8766,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8821,7 +8825,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8839,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8848,12 +8852,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8876,13 +8880,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8933,7 +8937,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8951,21 +8955,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8988,13 +8992,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9045,7 +9049,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9060,24 +9064,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9100,16 +9104,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9159,7 +9163,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9177,21 +9181,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9214,16 +9218,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9273,7 +9277,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9291,13 +9295,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9305,7 +9309,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9328,16 +9332,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9387,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9402,10 +9406,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9414,12 +9418,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9442,16 +9446,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9501,7 +9505,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9519,7 +9523,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9533,7 +9537,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9556,13 +9560,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9613,7 +9617,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9631,7 +9635,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9645,7 +9649,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9671,10 +9675,10 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>147</v>
@@ -9718,7 +9722,7 @@
         <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
@@ -9727,7 +9731,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9745,7 +9749,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9759,10 +9763,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9784,13 +9788,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9841,7 +9845,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9873,10 +9877,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9898,13 +9902,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9955,7 +9959,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9987,10 +9991,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10012,13 +10016,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10069,7 +10073,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -10101,10 +10105,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10126,13 +10130,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10183,7 +10187,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10215,11 +10219,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10241,10 +10245,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10299,7 +10303,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10335,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10354,17 +10358,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10413,7 +10417,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10431,7 +10435,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10440,12 +10444,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10468,17 +10472,17 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10527,7 +10531,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10545,7 +10549,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10554,12 +10558,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10585,16 +10589,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10622,10 +10626,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10643,7 +10647,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10661,7 +10665,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10670,12 +10674,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10698,13 +10702,13 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10755,7 +10759,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10773,7 +10777,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10782,12 +10786,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10810,19 +10814,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10871,7 +10875,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10889,7 +10893,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10903,7 +10907,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10926,13 +10930,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10983,7 +10987,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -11001,7 +11005,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -11015,7 +11019,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11041,10 +11045,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>147</v>
@@ -11088,7 +11092,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -11097,7 +11101,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11115,7 +11119,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11129,11 +11133,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11155,10 +11159,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11213,7 +11217,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11245,7 +11249,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11268,17 +11272,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11327,7 +11331,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11345,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11359,7 +11363,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11382,17 +11386,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11441,7 +11445,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11453,13 +11457,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11473,7 +11477,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11496,13 +11500,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11553,7 +11557,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11571,7 +11575,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11585,7 +11589,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11611,10 +11615,10 @@
         <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>147</v>
@@ -11658,7 +11662,7 @@
         <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
@@ -11667,7 +11671,7 @@
         <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11685,7 +11689,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11703,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11722,13 +11726,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11779,7 +11783,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11801,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11815,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11834,19 +11838,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11895,7 +11899,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11913,7 +11917,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11927,7 +11931,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11950,13 +11954,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12007,7 +12011,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12025,7 +12029,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12039,7 +12043,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12062,19 +12066,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12123,7 +12127,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12141,7 +12145,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12155,7 +12159,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12178,19 +12182,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12243,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12257,7 +12261,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12275,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12297,10 +12301,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12330,10 +12334,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12351,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12369,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12383,7 +12387,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12406,13 +12410,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12420,7 +12424,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12465,7 +12469,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12483,7 +12487,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12497,7 +12501,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12520,13 +12524,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12577,7 +12581,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12595,7 +12599,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12609,7 +12613,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12632,13 +12636,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12689,7 +12693,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12707,7 +12711,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12721,7 +12725,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12744,13 +12748,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12801,7 +12805,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12819,7 +12823,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12833,7 +12837,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12859,10 +12863,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12892,10 +12896,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12913,7 +12917,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12931,7 +12935,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12945,7 +12949,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12971,13 +12975,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13007,7 +13011,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13025,7 +13029,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13043,7 +13047,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13057,7 +13061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13080,16 +13084,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13139,7 +13143,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13157,7 +13161,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13171,7 +13175,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13197,16 +13201,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13234,10 +13238,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13255,7 +13259,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13273,7 +13277,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13287,7 +13291,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13310,13 +13314,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13367,7 +13371,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13385,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13399,7 +13403,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13425,13 +13429,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13460,10 +13464,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13481,7 +13485,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13499,7 +13503,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13513,7 +13517,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13536,13 +13540,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13593,7 +13597,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13611,7 +13615,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13625,7 +13629,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13651,10 +13655,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>147</v>
@@ -13698,7 +13702,7 @@
         <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
@@ -13707,7 +13711,7 @@
         <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13725,7 +13729,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13739,7 +13743,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13762,19 +13766,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13823,7 +13827,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13841,7 +13845,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13850,12 +13854,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13878,13 +13882,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13935,7 +13939,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13953,7 +13957,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13967,7 +13971,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13993,10 +13997,10 @@
         <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>147</v>
@@ -14040,7 +14044,7 @@
         <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
@@ -14049,7 +14053,7 @@
         <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -14067,7 +14071,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14081,7 +14085,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14107,16 +14111,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14165,7 +14169,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14183,7 +14187,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14192,12 +14196,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14220,16 +14224,16 @@
         <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14279,7 +14283,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14297,7 +14301,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14306,12 +14310,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14337,14 +14341,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14393,7 +14397,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14411,7 +14415,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14420,12 +14424,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14448,17 +14452,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14507,7 +14511,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14525,7 +14529,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14534,12 +14538,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14562,19 +14566,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14623,7 +14627,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14641,7 +14645,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14650,12 +14654,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14678,19 +14682,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14739,7 +14743,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14757,7 +14761,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14766,12 +14770,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14794,16 +14798,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14832,10 +14836,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14853,7 +14857,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14871,7 +14875,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14880,12 +14884,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14911,16 +14915,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14948,10 +14952,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14969,7 +14973,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14987,7 +14991,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14996,12 +15000,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15027,16 +15031,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15064,10 +15068,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15085,7 +15089,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15103,7 +15107,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15112,12 +15116,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15143,16 +15147,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15180,10 +15184,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15201,7 +15205,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15219,7 +15223,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15228,12 +15232,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15256,13 +15260,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15313,7 +15317,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15340,12 +15344,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15368,13 +15372,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15425,7 +15429,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15443,7 +15447,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15457,7 +15461,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15483,10 +15487,10 @@
         <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>147</v>
@@ -15530,7 +15534,7 @@
         <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
@@ -15539,7 +15543,7 @@
         <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -15557,7 +15561,7 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15571,7 +15575,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15597,14 +15601,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15632,10 +15636,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15653,7 +15657,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15680,12 +15684,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15708,19 +15712,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15769,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15787,7 +15791,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15796,12 +15800,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15824,19 +15828,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15885,7 +15889,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15903,7 +15907,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15912,12 +15916,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15940,19 +15944,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16001,7 +16005,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16019,7 +16023,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16028,12 +16032,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16056,19 +16060,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16117,7 +16121,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16135,7 +16139,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16149,7 +16153,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16172,17 +16176,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16231,7 +16235,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16249,7 +16253,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16263,7 +16267,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16286,13 +16290,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16343,7 +16347,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16361,13 +16365,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16375,7 +16379,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16398,13 +16402,13 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16455,7 +16459,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16473,7 +16477,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16487,7 +16491,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16513,10 +16517,10 @@
         <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>147</v>
@@ -16569,7 +16573,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16587,7 +16591,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16601,11 +16605,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16627,10 +16631,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16685,7 +16689,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16717,7 +16721,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16740,13 +16744,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16797,7 +16801,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16815,7 +16819,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16829,7 +16833,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16855,13 +16859,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16890,10 +16894,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16911,7 +16915,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16929,21 +16933,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16969,13 +16973,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17004,10 +17008,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17025,7 +17029,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17043,13 +17047,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17057,7 +17061,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17080,16 +17084,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17139,7 +17143,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17157,13 +17161,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17171,11 +17175,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17194,16 +17198,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17253,7 +17257,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17271,7 +17275,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17285,7 +17289,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17308,16 +17312,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17367,7 +17371,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17385,7 +17389,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
